--- a/CDC.xlsx
+++ b/CDC.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>GCC</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t xml:space="preserve">(2*i,8*i) </t>
+  </si>
+  <si>
+    <t>TDDD 2min</t>
+  </si>
+  <si>
+    <t>TDDD2min</t>
   </si>
 </sst>
 </file>
@@ -871,6 +877,174 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>TDDD2min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$6:$S$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>32.255779622527697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>196.45476670606999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>366.90163891846902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>538.22864872073296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>707.15258309971898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>884.70470345086699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1062.6705784999599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1245.3566075993999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1422.5659617321201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1606.14894826606</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1795.7261806394199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1981.77328843995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2166.2444410366502</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2351.4074074074001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2537.4672175318801</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2729.9410571069602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2919.2147137838301</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3091.7224775661998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3257.85977859778</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3432.8262454434898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$6:$T$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.95390380770886196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91784252956234103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89288284506388105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87642420968874502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86353524827836103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85039179305228296</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83407980133200399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82258145925833603</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81272016015766502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80480055330282696</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79567109205101405</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78558085470279004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.77791181276051102</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76943837214570499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76063139951069203</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75386809362540697</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.746365021293947</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.73840594843013696</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.73047543975398699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72036732766627398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -879,11 +1053,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148138144"/>
-        <c:axId val="148135792"/>
+        <c:axId val="281941568"/>
+        <c:axId val="281971528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148138144"/>
+        <c:axId val="281941568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,12 +1170,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148135792"/>
+        <c:crossAx val="281971528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148135792"/>
+        <c:axId val="281971528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.70000000000000007"/>
@@ -1115,7 +1289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148138144"/>
+        <c:crossAx val="281941568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1944,6 +2118,174 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>TDDD2min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$33:$O$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>32.365881509676399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>195.31351796389299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>361.85785343207601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>529.06170205888998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>694.01284687625798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>869.10056281193499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1039.50973232146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1208.32982689255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1384.5914396887099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1553.59149582384</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1741.52994999468</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1929.12669416617</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2104.61459337833</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2284.36815295513</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2455.7257520066</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2624.65164755872</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2802.6093656365001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2970.44551311133</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3150.2386451116199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3330.00508595259</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$33:$P$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.70655909715162601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57847411269353999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52281402120151699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49015141147951202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46618799729238303</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44090898816273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42397535775727202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40835078540428499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39509659935095398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38460357732835398</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37419657344776303</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36383361720949298</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.35461403635243899</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.345455945026587</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.338929746148733</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33343402384071003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32594888762902702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.31905891387433499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.31228492409876402</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.30719476388997402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1952,11 +2294,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148138536"/>
-        <c:axId val="148136184"/>
+        <c:axId val="268230704"/>
+        <c:axId val="268229136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148138536"/>
+        <c:axId val="268230704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2069,12 +2411,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148136184"/>
+        <c:crossAx val="268229136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148136184"/>
+        <c:axId val="268229136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -2188,7 +2530,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148138536"/>
+        <c:crossAx val="268230704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3385,16 +3727,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3415,16 +3757,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3709,10 +4051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="L31" workbookViewId="0">
+      <selection activeCell="AC41" sqref="AC41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3721,14 +4063,15 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3747,8 +4090,11 @@
       <c r="P4" t="s">
         <v>14</v>
       </c>
+      <c r="S4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -3789,7 +4135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -3841,8 +4187,17 @@
       <c r="Q6">
         <v>0.95923950593512097</v>
       </c>
+      <c r="R6">
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <v>32.255779622527697</v>
+      </c>
+      <c r="T6">
+        <v>0.95390380770886196</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>60</v>
       </c>
@@ -3894,8 +4249,17 @@
       <c r="Q7">
         <v>0.91664368317325096</v>
       </c>
+      <c r="R7">
+        <v>60</v>
+      </c>
+      <c r="S7">
+        <v>196.45476670606999</v>
+      </c>
+      <c r="T7">
+        <v>0.91784252956234103</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>110</v>
       </c>
@@ -3947,8 +4311,17 @@
       <c r="Q8">
         <v>0.89670361487404804</v>
       </c>
+      <c r="R8">
+        <v>110</v>
+      </c>
+      <c r="S8">
+        <v>366.90163891846902</v>
+      </c>
+      <c r="T8">
+        <v>0.89288284506388105</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>160</v>
       </c>
@@ -4000,8 +4373,17 @@
       <c r="Q9">
         <v>0.87921914642986498</v>
       </c>
+      <c r="R9">
+        <v>160</v>
+      </c>
+      <c r="S9">
+        <v>538.22864872073296</v>
+      </c>
+      <c r="T9">
+        <v>0.87642420968874502</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>210</v>
       </c>
@@ -4053,8 +4435,17 @@
       <c r="Q10">
         <v>0.86845331472000697</v>
       </c>
+      <c r="R10">
+        <v>210</v>
+      </c>
+      <c r="S10">
+        <v>707.15258309971898</v>
+      </c>
+      <c r="T10">
+        <v>0.86353524827836103</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>260</v>
       </c>
@@ -4106,8 +4497,17 @@
       <c r="Q11">
         <v>0.85300851333136996</v>
       </c>
+      <c r="R11">
+        <v>260</v>
+      </c>
+      <c r="S11">
+        <v>884.70470345086699</v>
+      </c>
+      <c r="T11">
+        <v>0.85039179305228296</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>310</v>
       </c>
@@ -4159,8 +4559,17 @@
       <c r="Q12">
         <v>0.843136418595958</v>
       </c>
+      <c r="R12">
+        <v>310</v>
+      </c>
+      <c r="S12">
+        <v>1062.6705784999599</v>
+      </c>
+      <c r="T12">
+        <v>0.83407980133200399</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>360</v>
       </c>
@@ -4212,8 +4621,17 @@
       <c r="Q13">
         <v>0.82997958386190596</v>
       </c>
+      <c r="R13">
+        <v>360</v>
+      </c>
+      <c r="S13">
+        <v>1245.3566075993999</v>
+      </c>
+      <c r="T13">
+        <v>0.82258145925833603</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>410</v>
       </c>
@@ -4265,8 +4683,17 @@
       <c r="Q14">
         <v>0.82383722164960105</v>
       </c>
+      <c r="R14">
+        <v>410</v>
+      </c>
+      <c r="S14">
+        <v>1422.5659617321201</v>
+      </c>
+      <c r="T14">
+        <v>0.81272016015766502</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>460</v>
       </c>
@@ -4318,8 +4745,17 @@
       <c r="Q15">
         <v>0.81586519402410296</v>
       </c>
+      <c r="R15">
+        <v>460</v>
+      </c>
+      <c r="S15">
+        <v>1606.14894826606</v>
+      </c>
+      <c r="T15">
+        <v>0.80480055330282696</v>
+      </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>510</v>
       </c>
@@ -4371,8 +4807,17 @@
       <c r="Q16">
         <v>0.80763824783662497</v>
       </c>
+      <c r="R16">
+        <v>510</v>
+      </c>
+      <c r="S16">
+        <v>1795.7261806394199</v>
+      </c>
+      <c r="T16">
+        <v>0.79567109205101405</v>
+      </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>560</v>
       </c>
@@ -4424,8 +4869,17 @@
       <c r="Q17">
         <v>0.79342117558445002</v>
       </c>
+      <c r="R17">
+        <v>560</v>
+      </c>
+      <c r="S17">
+        <v>1981.77328843995</v>
+      </c>
+      <c r="T17">
+        <v>0.78558085470279004</v>
+      </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>610</v>
       </c>
@@ -4477,8 +4931,17 @@
       <c r="Q18">
         <v>0.78641618906306598</v>
       </c>
+      <c r="R18">
+        <v>610</v>
+      </c>
+      <c r="S18">
+        <v>2166.2444410366502</v>
+      </c>
+      <c r="T18">
+        <v>0.77791181276051102</v>
+      </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>660</v>
       </c>
@@ -4530,8 +4993,17 @@
       <c r="Q19">
         <v>0.77188664512730998</v>
       </c>
+      <c r="R19">
+        <v>660</v>
+      </c>
+      <c r="S19">
+        <v>2351.4074074074001</v>
+      </c>
+      <c r="T19">
+        <v>0.76943837214570499</v>
+      </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>710</v>
       </c>
@@ -4583,8 +5055,17 @@
       <c r="Q20">
         <v>0.76526789456098199</v>
       </c>
+      <c r="R20">
+        <v>710</v>
+      </c>
+      <c r="S20">
+        <v>2537.4672175318801</v>
+      </c>
+      <c r="T20">
+        <v>0.76063139951069203</v>
+      </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>760</v>
       </c>
@@ -4636,8 +5117,17 @@
       <c r="Q21">
         <v>0.766302222555726</v>
       </c>
+      <c r="R21">
+        <v>760</v>
+      </c>
+      <c r="S21">
+        <v>2729.9410571069602</v>
+      </c>
+      <c r="T21">
+        <v>0.75386809362540697</v>
+      </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>810</v>
       </c>
@@ -4689,8 +5179,17 @@
       <c r="Q22">
         <v>0.74869248935302601</v>
       </c>
+      <c r="R22">
+        <v>810</v>
+      </c>
+      <c r="S22">
+        <v>2919.2147137838301</v>
+      </c>
+      <c r="T22">
+        <v>0.746365021293947</v>
+      </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>860</v>
       </c>
@@ -4742,8 +5241,17 @@
       <c r="Q23">
         <v>0.74733475245786496</v>
       </c>
+      <c r="R23">
+        <v>860</v>
+      </c>
+      <c r="S23">
+        <v>3091.7224775661998</v>
+      </c>
+      <c r="T23">
+        <v>0.73840594843013696</v>
+      </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>910</v>
       </c>
@@ -4795,8 +5303,17 @@
       <c r="Q24">
         <v>0.73913987461489605</v>
       </c>
+      <c r="R24">
+        <v>910</v>
+      </c>
+      <c r="S24">
+        <v>3257.85977859778</v>
+      </c>
+      <c r="T24">
+        <v>0.73047543975398699</v>
+      </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>960</v>
       </c>
@@ -4848,13 +5365,22 @@
       <c r="Q25">
         <v>0.73498560818004699</v>
       </c>
+      <c r="R25">
+        <v>960</v>
+      </c>
+      <c r="S25">
+        <v>3432.8262454434898</v>
+      </c>
+      <c r="T25">
+        <v>0.72036732766627398</v>
+      </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -4867,8 +5393,11 @@
       <c r="J32" t="s">
         <v>11</v>
       </c>
+      <c r="N32" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10</v>
       </c>
@@ -4908,8 +5437,17 @@
       <c r="M33">
         <v>0.756309992766656</v>
       </c>
+      <c r="N33">
+        <v>10</v>
+      </c>
+      <c r="O33">
+        <v>32.365881509676399</v>
+      </c>
+      <c r="P33">
+        <v>0.70655909715162601</v>
+      </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>60</v>
       </c>
@@ -4949,8 +5487,17 @@
       <c r="M34">
         <v>0.64794188765835103</v>
       </c>
+      <c r="N34">
+        <v>60</v>
+      </c>
+      <c r="O34">
+        <v>195.31351796389299</v>
+      </c>
+      <c r="P34">
+        <v>0.57847411269353999</v>
+      </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>110</v>
       </c>
@@ -4990,8 +5537,17 @@
       <c r="M35">
         <v>0.58892024627580497</v>
       </c>
+      <c r="N35">
+        <v>110</v>
+      </c>
+      <c r="O35">
+        <v>361.85785343207601</v>
+      </c>
+      <c r="P35">
+        <v>0.52281402120151699</v>
+      </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>160</v>
       </c>
@@ -5031,8 +5587,17 @@
       <c r="M36">
         <v>0.54847721007976202</v>
       </c>
+      <c r="N36">
+        <v>160</v>
+      </c>
+      <c r="O36">
+        <v>529.06170205888998</v>
+      </c>
+      <c r="P36">
+        <v>0.49015141147951202</v>
+      </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>210</v>
       </c>
@@ -5072,8 +5637,17 @@
       <c r="M37">
         <v>0.52551888855763196</v>
       </c>
+      <c r="N37">
+        <v>210</v>
+      </c>
+      <c r="O37">
+        <v>694.01284687625798</v>
+      </c>
+      <c r="P37">
+        <v>0.46618799729238303</v>
+      </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>260</v>
       </c>
@@ -5113,8 +5687,17 @@
       <c r="M38">
         <v>0.50580262013215505</v>
       </c>
+      <c r="N38">
+        <v>260</v>
+      </c>
+      <c r="O38">
+        <v>869.10056281193499</v>
+      </c>
+      <c r="P38">
+        <v>0.44090898816273</v>
+      </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>310</v>
       </c>
@@ -5154,8 +5737,17 @@
       <c r="M39">
         <v>0.48703029084884197</v>
       </c>
+      <c r="N39">
+        <v>310</v>
+      </c>
+      <c r="O39">
+        <v>1039.50973232146</v>
+      </c>
+      <c r="P39">
+        <v>0.42397535775727202</v>
+      </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>360</v>
       </c>
@@ -5195,8 +5787,17 @@
       <c r="M40">
         <v>0.47162598725367499</v>
       </c>
+      <c r="N40">
+        <v>360</v>
+      </c>
+      <c r="O40">
+        <v>1208.32982689255</v>
+      </c>
+      <c r="P40">
+        <v>0.40835078540428499</v>
+      </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>410</v>
       </c>
@@ -5236,8 +5837,17 @@
       <c r="M41">
         <v>0.45770763484321197</v>
       </c>
+      <c r="N41">
+        <v>410</v>
+      </c>
+      <c r="O41">
+        <v>1384.5914396887099</v>
+      </c>
+      <c r="P41">
+        <v>0.39509659935095398</v>
+      </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>460</v>
       </c>
@@ -5277,8 +5887,17 @@
       <c r="M42">
         <v>0.45333934279207</v>
       </c>
+      <c r="N42">
+        <v>460</v>
+      </c>
+      <c r="O42">
+        <v>1553.59149582384</v>
+      </c>
+      <c r="P42">
+        <v>0.38460357732835398</v>
+      </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>510</v>
       </c>
@@ -5318,8 +5937,17 @@
       <c r="M43">
         <v>0.445934756949874</v>
       </c>
+      <c r="N43">
+        <v>510</v>
+      </c>
+      <c r="O43">
+        <v>1741.52994999468</v>
+      </c>
+      <c r="P43">
+        <v>0.37419657344776303</v>
+      </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>560</v>
       </c>
@@ -5359,8 +5987,17 @@
       <c r="M44">
         <v>0.42622261226344998</v>
       </c>
+      <c r="N44">
+        <v>560</v>
+      </c>
+      <c r="O44">
+        <v>1929.12669416617</v>
+      </c>
+      <c r="P44">
+        <v>0.36383361720949298</v>
+      </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>610</v>
       </c>
@@ -5400,8 +6037,17 @@
       <c r="M45">
         <v>0.41972812035697499</v>
       </c>
+      <c r="N45">
+        <v>610</v>
+      </c>
+      <c r="O45">
+        <v>2104.61459337833</v>
+      </c>
+      <c r="P45">
+        <v>0.35461403635243899</v>
+      </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>660</v>
       </c>
@@ -5441,8 +6087,17 @@
       <c r="M46">
         <v>0.40794757536362197</v>
       </c>
+      <c r="N46">
+        <v>660</v>
+      </c>
+      <c r="O46">
+        <v>2284.36815295513</v>
+      </c>
+      <c r="P46">
+        <v>0.345455945026587</v>
+      </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>710</v>
       </c>
@@ -5482,8 +6137,17 @@
       <c r="M47">
         <v>0.40337211888098201</v>
       </c>
+      <c r="N47">
+        <v>710</v>
+      </c>
+      <c r="O47">
+        <v>2455.7257520066</v>
+      </c>
+      <c r="P47">
+        <v>0.338929746148733</v>
+      </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>760</v>
       </c>
@@ -5523,8 +6187,17 @@
       <c r="M48">
         <v>0.39914284265522298</v>
       </c>
+      <c r="N48">
+        <v>760</v>
+      </c>
+      <c r="O48">
+        <v>2624.65164755872</v>
+      </c>
+      <c r="P48">
+        <v>0.33343402384071003</v>
+      </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>810</v>
       </c>
@@ -5564,8 +6237,17 @@
       <c r="M49">
         <v>0.387711165985689</v>
       </c>
+      <c r="N49">
+        <v>810</v>
+      </c>
+      <c r="O49">
+        <v>2802.6093656365001</v>
+      </c>
+      <c r="P49">
+        <v>0.32594888762902702</v>
+      </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>860</v>
       </c>
@@ -5605,8 +6287,17 @@
       <c r="M50">
         <v>0.38006224096809499</v>
       </c>
+      <c r="N50">
+        <v>860</v>
+      </c>
+      <c r="O50">
+        <v>2970.44551311133</v>
+      </c>
+      <c r="P50">
+        <v>0.31905891387433499</v>
+      </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>910</v>
       </c>
@@ -5646,8 +6337,17 @@
       <c r="M51">
         <v>0.37325290922153498</v>
       </c>
+      <c r="N51">
+        <v>910</v>
+      </c>
+      <c r="O51">
+        <v>3150.2386451116199</v>
+      </c>
+      <c r="P51">
+        <v>0.31228492409876402</v>
+      </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>960</v>
       </c>
@@ -5686,6 +6386,15 @@
       </c>
       <c r="M52">
         <v>0.36924503196355901</v>
+      </c>
+      <c r="N52">
+        <v>960</v>
+      </c>
+      <c r="O52">
+        <v>3330.00508595259</v>
+      </c>
+      <c r="P52">
+        <v>0.30719476388997402</v>
       </c>
     </row>
   </sheetData>
